--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt1-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt1-Lrp6.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.08030833333333</v>
+        <v>13.17295566666667</v>
       </c>
       <c r="N2">
-        <v>42.240925</v>
+        <v>39.518867</v>
       </c>
       <c r="O2">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="P2">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="Q2">
-        <v>5.945536916525</v>
+        <v>5.562399086851</v>
       </c>
       <c r="R2">
-        <v>53.509832248725</v>
+        <v>50.061591781659</v>
       </c>
       <c r="S2">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="T2">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>129.459667</v>
       </c>
       <c r="O3">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="P3">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="Q3">
         <v>18.221836509251</v>
@@ -635,10 +635,10 @@
         <v>163.996528583259</v>
       </c>
       <c r="S3">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="T3">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.31989366666667</v>
+        <v>21.06166566666667</v>
       </c>
       <c r="N4">
-        <v>33.959681</v>
+        <v>63.184997</v>
       </c>
       <c r="O4">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="P4">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="Q4">
-        <v>4.779926979793</v>
+        <v>8.893477882740999</v>
       </c>
       <c r="R4">
-        <v>43.01934281813701</v>
+        <v>80.041300944669</v>
       </c>
       <c r="S4">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="T4">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.909414</v>
+        <v>21.076417</v>
       </c>
       <c r="N5">
-        <v>65.72824199999999</v>
+        <v>63.229251</v>
       </c>
       <c r="O5">
-        <v>0.2421924229181179</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="P5">
-        <v>0.242192422918118</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="Q5">
-        <v>9.251447246225998</v>
+        <v>8.899706766003002</v>
       </c>
       <c r="R5">
-        <v>83.26302521603399</v>
+        <v>80.09736089402701</v>
       </c>
       <c r="S5">
-        <v>0.2421924229181179</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="T5">
-        <v>0.242192422918118</v>
+        <v>0.214051442191299</v>
       </c>
     </row>
   </sheetData>
